--- a/Documentos/Mesa Interactiva V2 (Respuestas).xlsx
+++ b/Documentos/Mesa Interactiva V2 (Respuestas).xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto1Parcial\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537132C-1772-4C77-A380-1E5966D8226D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98A549-E9F3-4837-8660-FB5432304349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Respuestas de formulario 1'!$H$1:$W$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Respuestas de formulario 1'!$H$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Respuestas de formulario 1'!$H$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Respuestas de formulario 1'!$H$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Respuestas de formulario 1'!$H$5:$W$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Respuestas de formulario 1'!$H$6:$W$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -179,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,13 +181,31 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,16 +217,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,7 +249,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1918,7 +1932,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2217,21 +2231,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="21.5703125" customWidth="1"/>
+    <col min="1" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="31" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>43514</v>
@@ -2377,7 +2391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>43514</v>
@@ -2452,7 +2466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>43514</v>
@@ -2524,7 +2538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>43514</v>
@@ -2596,7 +2610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>43511</v>
@@ -2668,11 +2682,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <f>STDEV(H2:H6)</f>
         <v>1.3038404810405309</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>2.0736441353327724</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:X8" si="0">STDEV(J2:J6)</f>
+        <f t="shared" ref="J8:W8" si="0">STDEV(J2:J6)</f>
         <v>1</v>
       </c>
       <c r="K8">
@@ -2737,11 +2752,12 @@
         <v>0.83666002653407723</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <f>AVERAGE(H2:H6)</f>
         <v>5.8</v>
       </c>
@@ -2806,50 +2822,70 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <f>STDEV(H8:O8)</f>
         <v>0.48775310036194769</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <f>STDEV(P8:W8)</f>
         <v>0.65167995805312406</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <f>AVERAGE(H9:O9)</f>
         <v>5.1000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <f>AVERAGE(P9:W9)</f>
         <v>5.3749999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="3" t="s">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <f>STDEV(H8:W8)</f>
         <v>0.56155511801123081</v>
       </c>
+    </row>
+    <row r="17" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Mesa Interactiva V2 (Respuestas).xlsx
+++ b/Documentos/Mesa Interactiva V2 (Respuestas).xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\DBM\Proyecto1Parcial\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537132C-1772-4C77-A380-1E5966D8226D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23CFBFD-F29B-4388-BE02-E92E786C897F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Respuestas de formulario 1'!$H$1:$W$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Respuestas de formulario 1'!$H$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Respuestas de formulario 1'!$H$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Respuestas de formulario 1'!$H$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Respuestas de formulario 1'!$H$5:$W$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Respuestas de formulario 1'!$H$6:$W$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -247,6 +239,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Encuesta de la mesa interactiva V2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -279,35 +296,24 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -362,8 +368,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$2:$W$2</c:f>
               <c:numCache>
@@ -419,8 +425,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E93-49F0-9B28-621945C78219}"/>
@@ -431,28 +436,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -507,8 +500,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$3:$W$3</c:f>
               <c:numCache>
@@ -564,8 +557,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E93-49F0-9B28-621945C78219}"/>
@@ -576,28 +568,16 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -652,8 +632,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$4:$W$4</c:f>
               <c:numCache>
@@ -709,8 +689,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E93-49F0-9B28-621945C78219}"/>
@@ -721,28 +700,16 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -797,8 +764,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$5:$W$5</c:f>
               <c:numCache>
@@ -854,8 +821,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E93-49F0-9B28-621945C78219}"/>
@@ -866,28 +832,16 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
               <c:f>'Respuestas de formulario 1'!$H$1:$W$1</c:f>
               <c:strCache>
@@ -942,8 +896,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$H$6:$W$6</c:f>
               <c:numCache>
@@ -999,8 +953,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E93-49F0-9B28-621945C78219}"/>
@@ -1015,10 +968,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="538606456"/>
         <c:axId val="538600880"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="538606456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1080,19 +1035,14 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1118,8 +1068,11 @@
         </c:txPr>
         <c:crossAx val="538600880"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="538600880"/>
         <c:scaling>
@@ -1202,14 +1155,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1235,7 +1182,7 @@
         </c:txPr>
         <c:crossAx val="538606456"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1246,7 +1193,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1361,7 +1308,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1388,8 +1335,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1490,7 +1437,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1522,10 +1469,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1565,23 +1512,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1686,8 +1632,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1819,20 +1765,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1846,17 +1791,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1881,15 +1815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1314449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2219,9 +2153,9 @@
   </sheetPr>
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2681,7 +2615,7 @@
         <v>2.0736441353327724</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:X8" si="0">STDEV(J2:J6)</f>
+        <f t="shared" ref="J8:W8" si="0">STDEV(J2:J6)</f>
         <v>1</v>
       </c>
       <c r="K8">
